--- a/empanelments.xlsx
+++ b/empanelments.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -436,9 +436,68 @@
         <v>6/8/2025, 1:30:29 pm</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>xjbskd</v>
+      </c>
+      <c r="B3" t="str">
+        <v>jsdk</v>
+      </c>
+      <c r="C3" t="str">
+        <v>218918414</v>
+      </c>
+      <c r="D3" t="str">
+        <v>pm@gmail.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="F3" t="str">
+        <v>2025-08-28</v>
+      </c>
+      <c r="G3" t="str">
+        <v>cf</v>
+      </c>
+      <c r="H3" t="str">
+        <v>jkf</v>
+      </c>
+      <c r="I3" t="str">
+        <v>vfj</v>
+      </c>
+      <c r="J3" t="str">
+        <v>vjf</v>
+      </c>
+      <c r="K3" t="str">
+        <v>vfd</v>
+      </c>
+      <c r="L3" t="str">
+        <v>jf</v>
+      </c>
+      <c r="M3" t="str">
+        <v>18</v>
+      </c>
+      <c r="N3" t="str">
+        <v>jcfkd</v>
+      </c>
+      <c r="O3" t="str">
+        <v>fjdk</v>
+      </c>
+      <c r="P3" t="str">
+        <v>vfdj</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>323</v>
+      </c>
+      <c r="R3" t="str">
+        <v>ESG</v>
+      </c>
+      <c r="S3" t="str">
+        <v>27/8/2025, 4:14:24 pm</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:S3"/>
   </ignoredErrors>
 </worksheet>
 </file>